--- a/biology/Médecine/Paramedical_Intervention_Team/Paramedical_Intervention_Team.xlsx
+++ b/biology/Médecine/Paramedical_Intervention_Team/Paramedical_Intervention_Team.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le service PIT (pour Paramedical Intervention Team) est l'un des vecteurs de l'aide médicale urgente en Belgique. Il se veut l'intermédiaire entre l'ambulance urgente et le SMUR. L'équipe se déplace dans une ambulance.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PIT a été créé en 2007 par le SPF Santé publique. Il a débuté par une phase de test avec une série projets pilote sélectionnés par le Ministère. Il est reconnu comme vecteur à part entière de l'aide médicale urgente depuis le 1er janvier 2023.
-Bien qu’à la fois les métiers d'infirmier et de secouriste-ambulancier sont considérés comme paramédicaux, certains professionnels de la santé critiquent l'emploi de la dénomination Paramedical Intervention Team, souhaitant faire reconnaître les professionnels en question comme étant pleinement intégrés aux services médicaux. En janvier 2014, le Conseil national des établissements hospitaliers propose un « compromis » sur la dénomination de ces unités d'intervention, conservant leur abréviation PIT mais modifiant la signification de celle-ci en la suivante : Prehospital Intervention Team, ou « équipe d'intervention préhospitalière »[1].
+Bien qu’à la fois les métiers d'infirmier et de secouriste-ambulancier sont considérés comme paramédicaux, certains professionnels de la santé critiquent l'emploi de la dénomination Paramedical Intervention Team, souhaitant faire reconnaître les professionnels en question comme étant pleinement intégrés aux services médicaux. En janvier 2014, le Conseil national des établissements hospitaliers propose un « compromis » sur la dénomination de ces unités d'intervention, conservant leur abréviation PIT mais modifiant la signification de celle-ci en la suivante : Prehospital Intervention Team, ou « équipe d'intervention préhospitalière ».
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Composition d'un PIT</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'équipe du PIT se compose d'au moins un ambulancier agréé AMU et d'un infirmier SISU (pour Soins Intensifs et Soins d'Urgences) (ce qui signifie que ce dernier a fait une année de spécialisation dite « SIAMU » (pour Soins intensifs et Aide médicale urgente qui est une 5e année des études d'infirmier en Belgique). Une liaison avec un médecin référent est possible en permanence.
 L'équipe du PIT suit un cahier d'ordre permanent (OP) reprenant une série de pathologies avec une prise en charge initiale.
@@ -576,7 +592,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La décision d'envoi d'un PIT ou d'un SMUR est définie par le manuel belge de régulation médicale qui est l'outil de référence des centrales d'urgence 112. 
 </t>
@@ -607,7 +625,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principal avantage est de soulager le médecin urgentiste en envoyant un PIT à la place du SMUR pour des prises en charge intermédiaires. Citons comme exemple un patient stable mais nécessitant l'administration d'antalgiques pour le déplacer.
 Le second avantage est que ces PIT peuvent être disposés en dehors des « gros » centres de service d'urgence hospitalière, mais plutôt dans de plus petites structures hospitalières ne disposant pas de SMUR, dans une caserne de pompiers ou de la Croix-Rouge de Belgique. 
@@ -640,7 +660,9 @@
           <t>Désavantages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PIT reste un moyen intermédiaire entre l'ambulance et le SMUR, l'absence de médecin limite les actes techniques et invasifs médicaux qui peuvent êtres réalisés par un PIT. 
 Même si les infirmiers disposent de la possibilité de réaliser de manière autonome certains actes grâce à des ordres permanents (intubations sur réanimation, administration de certains médicaments, antalgies, etc.), La présence d'un médecin reste nécessaire dans certains cas afin de pouvoir exécuter d'autres actes médicaux ou de poser un diagnostic plus complet.
@@ -673,11 +695,48 @@
           <t>Liste des PIT en Belgique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Voici une liste non exhaustive des PIT de Belgique par province:
- Province d'Anvers
-Anvers 1 : au départ du ZNA Cadix en collaboration avec Vyvex
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici une liste non exhaustive des PIT de Belgique par province:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des PIT en Belgique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Province d'Anvers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Anvers 1 : au départ du ZNA Cadix en collaboration avec Vyvex
 Anvers 2 : au départ du GZA Sint Vincentius en collaboration avec Ambuce rescue team
 Anvers 3 : au départ du ZNA Middelheim en collaboration avec Vyvex. Garde alternée avec GZA Sint Augustinus
 Anvers 3 : au départ du GZA Sint Augustinus en collaboration avec Vyvex. Garde alternée avec ZNA Middelheim
@@ -688,19 +747,120 @@
 Lierre : au départ du Heilige Hart Ziekenhuis en collaboration avec la Croix-Rouge
 Malines : au départ du AZ Sint Maarten en collaboration avec Ambuce rescue team
 Mol : au départ du Heilige Hart Ziekenhuis en collaboration avec la zone de secours
-Rumst : au départ du AZ Heilige Familie en collaboration avec Vyvex
- Province du Brabant flamand
-Asse : au départ du Onze Lieve Vrouw Ziekenhuis en collaboration avec la zone de secours
+Rumst : au départ du AZ Heilige Familie en collaboration avec Vyvex</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des PIT en Belgique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Province du Brabant flamand</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Asse : au départ du Onze Lieve Vrouw Ziekenhuis en collaboration avec la zone de secours
 Louvain 1 : au départ de l'Universitair Ziekenhuis
 Louvain 2 : au départ de l'Universitair Ziekenhuis en collaboration avec la zone de secours. Garde 6-22
-Louvain 4 : au départ du Onze Lieve Vrouw Ziekenhuis
- Province du Brabant wallon
- Région de Bruxelles-Capitale
-Bruxelles : au départ de l'Hôpital Saint-Pierre en collaboration avec le SIAMU
+Louvain 4 : au départ du Onze Lieve Vrouw Ziekenhuis</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des PIT en Belgique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Région de Bruxelles-Capitale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bruxelles : au départ de l'Hôpital Saint-Pierre en collaboration avec le SIAMU
 Ixelles : au départ de l'hôpital Etterbeek-Ixelles (IRIS Sud) organisé avec la Croix-Rouge de Belgique
-Jette : au départ de l'AZ VUB en collaboration avec le SIAMU
- Province de Flandre-Occidentale
-Blankenberge : au départ de l'AZ Zeno en collaboration avec la zone de secours
+Jette : au départ de l'AZ VUB en collaboration avec le SIAMU</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des PIT en Belgique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Province de Flandre-Occidentale</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Blankenberge : au départ de l'AZ Zeno en collaboration avec la zone de secours
 Bruges 1 : au départ de l'AZ Sint Jan en collaboration avec First care
 Bruges 2 : au départ de l'AZ Sint Lucas en collaboration avec Meducation@work
 Dixmude : au départ du centre médical. Personnel du Jan Yperman Ziekenhuis et de la zone de secours
@@ -710,9 +870,43 @@
 Ronse (Rumbeke) : au départ du AZ Delta en collaboration avec la zone de secours
 Tielt : au départ du Sint Andries Ziekenhuis en collaboration avec la Croix-Rouge
 Waregem : au départ du Onze Lieve Vrouw van Lourdes Ziekenhuis
-Ypres : au départ du Jan Yperman Ziekenhuis
- Province de Flandre-Orientale
-Beveren : au départ du poste de secours en collaboration avec VITAZ Ziekenhuis
+Ypres : au départ du Jan Yperman Ziekenhuis</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des PIT en Belgique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Province de Flandre-Orientale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Beveren : au départ du poste de secours en collaboration avec VITAZ Ziekenhuis
 Beveren (Kallo) : au départ du poste du SIWHA
 Deinze : au départ du Sint Vincentius Ziekenhuis en collaboration avec la zone de secours
 Gand  : au départ du AZ Maria Middelares en collaboration avec la zone de secours. Garde nocturne
@@ -721,26 +915,196 @@
 Gand 3 : au départ du Universitair Ziekenhuis
 Lokeren : au départ du VITAZ Ziekenhuis
 Merelbeke (Lemberge) : au départ du Zorgband Leie en Schelde. Personnel du AZ Maria Middelares et de la zone de secours. Garde diurne
-Saint Nicolas : au départ du VITAZ Ziekenhuis en collaboration avec la zone de secours. Garde diurne
- Province de Hainaut
-Charleroi 1 (Gilly) : au départ du Grand Hôpital de Charleroi en collaboration avec le SAPG
+Saint Nicolas : au départ du VITAZ Ziekenhuis en collaboration avec la zone de secours. Garde diurne</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des PIT en Belgique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Province de Hainaut</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Charleroi 1 (Gilly) : au départ du Grand Hôpital de Charleroi en collaboration avec le SAPG
 Charleroi  4 : au départ de la Polyclinique du Mambourg. Personnel du réseau hospitalier Humani
 Mons : au départ du poste de secours de Cuesmes en collaboration avec le Centre Hospitalier Universitaire Ambroise Paré
-Tournai : au départ du Centre Hospitalier Wallonie Picarde en collaboration avec la croix rouge
- Province de Liège
-Herstal : au départ de la clinique André Renard
+Tournai : au départ du Centre Hospitalier Wallonie Picarde en collaboration avec la croix rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des PIT en Belgique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Province de Liège</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Herstal : au départ de la clinique André Renard
 Liège : au départ du Centre Hospitalier Régional de la Citadelle
 Malmédy : au départ de la clinique Reine Astrid
-Verviers : au départ du Centre Hospitalier Régional en collaboration avec la zone de secours VHP
- Province de Limbourg
-Genk : au départ du Ziekenhuis Oost Limburg
-Tessenderlo : au départ du poste de secours de la zone zuid-west Limburg
- Province de Luxembourg
-Bouillon : au départ du poste de secours, organisé par VIVALIA (infirmier) et la Croix-Rouge
+Verviers : au départ du Centre Hospitalier Régional en collaboration avec la zone de secours VHP</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des PIT en Belgique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Province de Limbourg</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Genk : au départ du Ziekenhuis Oost Limburg
+Tessenderlo : au départ du poste de secours de la zone zuid-west Limburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des PIT en Belgique</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Province de Luxembourg</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bouillon : au départ du poste de secours, organisé par VIVALIA (infirmier) et la Croix-Rouge
 Libramont : au départ du Centre hospitalier des Ardennes, organisé avec la Croix-Rouge
-Virton (Saint-Mard) : au départ de la Clinique Edmond Jacques, organisé avec la Croix-Rouge
- Province de Namur
-Mettet : au départ du poste de secours de Mettet avec du personnel de la zone de secours Val de Sambre (Début au 01/01/2024)
+Virton (Saint-Mard) : au départ de la Clinique Edmond Jacques, organisé avec la Croix-Rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paramedical_Intervention_Team</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des PIT en Belgique</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Province de Namur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Mettet : au départ du poste de secours de Mettet avec du personnel de la zone de secours Val de Sambre (Début au 01/01/2024)
 Il s'agit du premier PIT affrété uniquement avec du personnel appartenant à une zone de secours (infirmiers SISU et ambulanciers appartenant à la zone Val de Sambre),
 Alors qu'en général il s'agit d'une collaboration entre un hospital (fournissant l'infirmier) et un service de secours (fournissant l'ambulancier).
 Namur : au départ du Centre Hospitalier Régional de Namur en collaboration avec la zone de secours NAGE</t>
